--- a/iii.xlsx
+++ b/iii.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="13485"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="442">
   <si>
     <r>
       <rPr>
@@ -5544,10 +5544,6 @@
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t xml:space="preserve">R </t>
     <phoneticPr fontId="12"/>
   </si>
   <si>
@@ -6014,7 +6010,7 @@
   <dimension ref="A1:H301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6045,7 +6041,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>4</v>
@@ -6091,7 +6087,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -8862,15 +8858,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100954BCABBCAB12F408558E2575A4DC692" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c112426a481cf2539f05d727103ea1ae">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f22f8a7-8acf-4c8b-b850-cb24a6db7b6d" xmlns:ns3="21b2c721-d934-4f38-98be-49e0b11a18da" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f99c3e3a9162c5fb9a93df617701be1" ns2:_="" ns3:_="">
     <xsd:import namespace="3f22f8a7-8acf-4c8b-b850-cb24a6db7b6d"/>
@@ -9065,15 +9052,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FA41CB6-A133-482F-BE4D-57C91F800A3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DBC5543-7EB0-4FC2-BC27-EA2912826858}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9090,4 +9078,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FA41CB6-A133-482F-BE4D-57C91F800A3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>